--- a/EmotionRegulation/EmotionRegulationAsset/Openness.xlsx
+++ b/EmotionRegulation/EmotionRegulationAsset/Openness.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rad3896da8173462c"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rffceb5fba0b74c16"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <x:si>
     <x:t xml:space="preserve">MOOD     </x:t>
   </x:si>
@@ -41,48 +41,51 @@
     <x:t>Distress</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter</x:t>
+    <x:t>Talk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cognitive Change</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Love</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hello</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Conversation</x:t>
   </x:si>
   <x:si>
     <x:t>Attention Deployment</x:t>
   </x:si>
   <x:si>
-    <x:t>Love</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hello</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Conversation</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hug</x:t>
   </x:si>
   <x:si>
     <x:t>Discussion</x:t>
   </x:si>
   <x:si>
+    <x:t>Congrat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bye</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fired</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crash</x:t>
+  </x:si>
+  <x:si>
     <x:t>Joy</x:t>
   </x:si>
   <x:si>
-    <x:t>Congrat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bye</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fired</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crash</x:t>
-  </x:si>
-  <x:si>
     <x:t>Profits</x:t>
   </x:si>
   <x:si>
@@ -95,7 +98,7 @@
     <x:t>Low Neuroticism</x:t>
   </x:si>
   <x:si>
-    <x:t>Middle Agreeableness</x:t>
+    <x:t>Low Agreeableness</x:t>
   </x:si>
   <x:si>
     <x:t>High Openness</x:t>
@@ -475,13 +478,13 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2">
-        <x:v>-1.0230742692947388</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B2" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C2">
-        <x:v>3.294081926345825</x:v>
+        <x:v>1.4661377668380737</x:v>
       </x:c>
       <x:c r="D2" t="s">
         <x:v>9</x:v>
@@ -492,13 +495,13 @@
     </x:row>
     <x:row r="3">
       <x:c r="A3">
-        <x:v>-0.6871664524078369</x:v>
+        <x:v>0.6227638125419617</x:v>
       </x:c>
       <x:c r="B3" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3">
-        <x:v>1.0437160730361938</x:v>
+        <x:v>2.005167245864868</x:v>
       </x:c>
       <x:c r="D3" t="s">
         <x:v>12</x:v>
@@ -512,16 +515,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4">
-        <x:v>2.4767158031463623</x:v>
+        <x:v>2.046055793762207</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -535,7 +538,7 @@
         <x:v>4.6787238121032715</x:v>
       </x:c>
       <x:c r="D5" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E5" t="s">
         <x:v>13</x:v>
@@ -552,7 +555,7 @@
         <x:v>4.357959747314453</x:v>
       </x:c>
       <x:c r="D6" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" t="s">
         <x:v>13</x:v>
@@ -560,33 +563,33 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7">
-        <x:v>0.5931084156036377</x:v>
+        <x:v>-0.5350452661514282</x:v>
       </x:c>
       <x:c r="B7" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7">
-        <x:v>1.9096832275390625</x:v>
+        <x:v>1.7227320671081543</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8">
-        <x:v>-1.436816930770874</x:v>
+        <x:v>-2.6523802280426025</x:v>
       </x:c>
       <x:c r="B8" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8">
-        <x:v>6.513993740081787</x:v>
+        <x:v>6.837156295776367</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" t="s">
         <x:v>13</x:v>
@@ -594,13 +597,13 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9">
-        <x:v>-2.7571606636047363</x:v>
+        <x:v>-3.67588472366333</x:v>
       </x:c>
       <x:c r="B9" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C9">
-        <x:v>4.304364204406738</x:v>
+        <x:v>3.393559217453003</x:v>
       </x:c>
       <x:c r="D9" t="s">
         <x:v>21</x:v>
@@ -611,33 +614,33 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10">
-        <x:v>-4.839077949523926</x:v>
+        <x:v>-4.543883323669434</x:v>
       </x:c>
       <x:c r="B10" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10">
-        <x:v>6.8052978515625</x:v>
+        <x:v>2.9307148456573486</x:v>
       </x:c>
       <x:c r="D10" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11">
-        <x:v>-2.8415772914886475</x:v>
+        <x:v>-2.5235109329223633</x:v>
       </x:c>
       <x:c r="B11" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C11">
-        <x:v>6.252566814422607</x:v>
+        <x:v>6.3371262550354</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E11" t="s">
         <x:v>13</x:v>
@@ -645,47 +648,47 @@
     </x:row>
     <x:row r="12">
       <x:c r="F12" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="F13" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="F14" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="F15" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="F16" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="G17" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="G18" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="G19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="H20" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
